--- a/rotten_tomatoes/movie_list/movie_content.xlsx
+++ b/rotten_tomatoes/movie_list/movie_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyanzhen/Developer/GitHub/CISC3014-IR-and-WebSearch-Project/rotten_tomatoes/movie_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D5314-014D-224E-A365-1BBF8156C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD410E-3D24-3249-8855-DD67A3C00328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>Comedy</t>
   </si>
   <si>
-    <t xml:space="preserve">                    To live in Barbie Land is to be a perfect being in a perfect place. Unless you have a full-on existential crisis. Or you're a Ken.                </t>
-  </si>
-  <si>
     <t>Mission: Impossible - Dead Reckoning, Part One</t>
   </si>
   <si>
@@ -914,9 +911,6 @@
   </si>
   <si>
     <t>Mystery&amp;thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Alice and Jack are lucky to be living in the idealized community of Victory, the experimental company town housing the men who work for the top-secret Victory Project and their families. The 1950's societal optimism espoused by their CEO, Frank--equal parts corporate visionary and motivational life coach--anchors every aspect of daily life in the tight-knit desert utopia. While the husbands spend every day inside the Victory Project Headquarters, working on the "development of progressive materials," their wives--including Frank's elegant partner, Shelley--get to spend their time enjoying the beauty, luxury and debauchery of their community. Life is perfect, with every resident's needs met by the company. All they ask in return is discretion and unquestioning commitment to the Victory cause. But when cracks in her idyllic life begin to appear, exposing flashes of something much more sinister lurking beneath the attractive façade, Alice can't help questioning exactly what they're doing in Victory, and why. Just how much is Alice willing to lose to expose what's really going on in this paradise?                </t>
   </si>
   <si>
     <t xml:space="preserve">                    An expatriate French couple (Denis Ménochet and Marina Foïs) operate an organic farm in the Spanish countryside. However, their earnest enthusiasm reeks of patronizing privilege to the handful of "hill people" families who have toiled on the land for generations. Tensions between locals and foreigners boil over in this edge-of-your-seat thriller.                </t>
@@ -936,6 +930,14 @@
   </si>
   <si>
     <t xml:space="preserve">                    Sound of Freedom, based on the incredible true story, shines a light on even the darkest of places. After rescuing a young boy from ruthless child traffickers, a federal agent learns the boy’s sister is still captive and decides to embark on a dangerous mission to save her. With time running out, he quits his job and journeys deep into the Colombian jungle, putting his life on the line to free her from a fate worse than death.                </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    To live in Barbie Land is to be a perfect being in a perfect place. Unless you have a full-on existential crisis. Or you're a Ken.                </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Alice and Jack are lucky to be living in the idealized community of Victory, the experimental company town housing the men who work for the top-secret Victory Project and their families. The 1950's societal optimism espoused by their CEO, Frank--equal parts corporate visionary and motivational life coach--anchors every aspect of daily life in the tight-knit desert utopia. While the husbands spend every day inside the Victory Project Headquarters, working on the "development of progressive materials," their wives--including Frank's elegant partner, Shelley--get to spend their time enjoying the beauty, luxury and debauchery of their community. Life is perfect, with every resident's needs met by the company. All they ask in return is discretion and unquestioning commitment to the Victory cause. But when cracks in her idyllic life begin to appear, exposing flashes of something much more sinister lurking beneath the attractive façade, Alice can't help questioning exactly what they're doing in Victory, and why. Just how much is Alice willing to lose to expose what's really going on in this paradise?                </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1310,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1339,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1559,1063 +1561,1063 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
         <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
         <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
         <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>108</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
         <v>110</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>123</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
         <v>125</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>126</v>
-      </c>
-      <c r="C49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
         <v>128</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>130</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
         <v>132</v>
       </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
       <c r="C52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
         <v>134</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
         <v>136</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
         <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
         <v>140</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>141</v>
-      </c>
-      <c r="C56" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
         <v>143</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
         <v>145</v>
-      </c>
-      <c r="B58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
         <v>147</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>148</v>
-      </c>
-      <c r="C59" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
         <v>150</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
         <v>153</v>
-      </c>
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
         <v>155</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
         <v>157</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
         <v>159</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
         <v>161</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
         <v>164</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
         <v>166</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
         <v>171</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
         <v>174</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
         <v>176</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
-      </c>
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s">
         <v>180</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
         <v>183</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>184</v>
-      </c>
-      <c r="C74" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
         <v>186</v>
       </c>
-      <c r="B75" t="s">
-        <v>187</v>
-      </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" t="s">
         <v>188</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>189</v>
-      </c>
-      <c r="C76" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
         <v>191</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
         <v>193</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>194</v>
-      </c>
-      <c r="C78" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
         <v>196</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
         <v>200</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s">
         <v>202</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>203</v>
-      </c>
-      <c r="C82" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" t="s">
         <v>205</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>206</v>
-      </c>
-      <c r="C83" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
         <v>208</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>209</v>
-      </c>
-      <c r="C84" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
         <v>211</v>
-      </c>
-      <c r="B85" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
         <v>213</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" t="s">
         <v>215</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>216</v>
-      </c>
-      <c r="C87" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" t="s">
         <v>218</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>219</v>
-      </c>
-      <c r="C88" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" t="s">
         <v>221</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>222</v>
-      </c>
-      <c r="C89" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
         <v>224</v>
-      </c>
-      <c r="B90" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" t="s">
         <v>226</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>227</v>
-      </c>
-      <c r="C91" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" t="s">
         <v>229</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
         <v>232</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
         <v>234</v>
-      </c>
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
         <v>238</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
         <v>240</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>241</v>
-      </c>
-      <c r="C97" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" t="s">
         <v>243</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>244</v>
-      </c>
-      <c r="C98" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
         <v>246</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" t="s">
         <v>248</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>249</v>
-      </c>
-      <c r="C100" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" t="s">
         <v>251</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>252</v>
-      </c>
-      <c r="C101" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
         <v>255</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" t="s">
         <v>257</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>258</v>
-      </c>
-      <c r="C104" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" t="s">
         <v>260</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>261</v>
-      </c>
-      <c r="C105" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
         <v>263</v>
-      </c>
-      <c r="B106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C106" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" t="s">
         <v>265</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>266</v>
-      </c>
-      <c r="C107" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" t="s">
         <v>268</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>269</v>
-      </c>
-      <c r="C108" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" t="s">
         <v>271</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>272</v>
-      </c>
-      <c r="C109" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" t="s">
         <v>274</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>275</v>
-      </c>
-      <c r="C110" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" t="s">
         <v>277</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>278</v>
-      </c>
-      <c r="C111" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" t="s">
         <v>280</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>281</v>
-      </c>
-      <c r="C112" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" t="s">
         <v>283</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>284</v>
-      </c>
-      <c r="C113" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
         <v>286</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B115" t="s">
         <v>56</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116" t="s">
         <v>290</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>291</v>
-      </c>
-      <c r="C116" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>292</v>
+      </c>
+      <c r="B117" t="s">
         <v>293</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>294</v>
-      </c>
-      <c r="C117" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" t="s">
         <v>296</v>
       </c>
-      <c r="B118" t="s">
-        <v>297</v>
-      </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/rotten_tomatoes/movie_list/movie_content.xlsx
+++ b/rotten_tomatoes/movie_list/movie_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyanzhen/Developer/GitHub/CISC3014-IR-and-WebSearch-Project/rotten_tomatoes/movie_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AD410E-3D24-3249-8855-DD67A3C00328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C0EE0-E9F8-6547-AB2C-70C09DA630AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="560" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1312,13 +1312,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="167.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/rotten_tomatoes/movie_list/movie_content.xlsx
+++ b/rotten_tomatoes/movie_list/movie_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyanzhen/Developer/GitHub/CISC3014-IR-and-WebSearch-Project/rotten_tomatoes/movie_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C0EE0-E9F8-6547-AB2C-70C09DA630AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDCAFFA-995A-E741-9CF6-2A8F9E5F9B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="560" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,9 +610,6 @@
     <t>Host</t>
   </si>
   <si>
-    <t xml:space="preserve">                    Six friends accidentally invite the attention of a demonic presence during an online séance and begin noticing strange occurrences in their homes.                </t>
-  </si>
-  <si>
     <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
   </si>
   <si>
@@ -938,6 +935,10 @@
   </si>
   <si>
     <t xml:space="preserve">                    Alice and Jack are lucky to be living in the idealized community of Victory, the experimental company town housing the men who work for the top-secret Victory Project and their families. The 1950's societal optimism espoused by their CEO, Frank--equal parts corporate visionary and motivational life coach--anchors every aspect of daily life in the tight-knit desert utopia. While the husbands spend every day inside the Victory Project Headquarters, working on the "development of progressive materials," their wives--including Frank's elegant partner, Shelley--get to spend their time enjoying the beauty, luxury and debauchery of their community. Life is perfect, with every resident's needs met by the company. All they ask in return is discretion and unquestioning commitment to the Victory cause. But when cracks in her idyllic life begin to appear, exposing flashes of something much more sinister lurking beneath the attractive façade, Alice can't help questioning exactly what they're doing in Victory, and why. Just how much is Alice willing to lose to expose what's really going on in this paradise?                </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Six friends accidentally invite the attention of a demonic presence during an online séance and begin noticing strange occurrences in their homes.                </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1312,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1342,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1563,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1694,7 +1695,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1892,7 +1893,7 @@
         <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2145,7 +2146,7 @@
         <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2189,436 +2190,436 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
         <v>199</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" t="s">
         <v>201</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>202</v>
-      </c>
-      <c r="C82" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" t="s">
         <v>204</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>205</v>
-      </c>
-      <c r="C83" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" t="s">
         <v>207</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>208</v>
-      </c>
-      <c r="C84" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
         <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
         <v>212</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" t="s">
         <v>214</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>215</v>
-      </c>
-      <c r="C87" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" t="s">
         <v>217</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>218</v>
-      </c>
-      <c r="C88" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" t="s">
         <v>220</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>221</v>
-      </c>
-      <c r="C89" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s">
         <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" t="s">
         <v>225</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>226</v>
-      </c>
-      <c r="C91" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s">
         <v>228</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>229</v>
-      </c>
-      <c r="C92" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
         <v>231</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B94" t="s">
         <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
         <v>237</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" t="s">
         <v>239</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>240</v>
-      </c>
-      <c r="C97" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
         <v>242</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>243</v>
-      </c>
-      <c r="C98" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
         <v>245</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" t="s">
         <v>247</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>248</v>
-      </c>
-      <c r="C100" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" t="s">
         <v>250</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>251</v>
-      </c>
-      <c r="C101" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
         <v>254</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>255</v>
+      </c>
+      <c r="B104" t="s">
         <v>256</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>257</v>
-      </c>
-      <c r="C104" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" t="s">
         <v>259</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>260</v>
-      </c>
-      <c r="C105" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s">
         <v>264</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>265</v>
-      </c>
-      <c r="C107" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" t="s">
         <v>267</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>268</v>
-      </c>
-      <c r="C108" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s">
         <v>270</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>271</v>
-      </c>
-      <c r="C109" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>272</v>
+      </c>
+      <c r="B110" t="s">
         <v>273</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>274</v>
-      </c>
-      <c r="C110" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" t="s">
         <v>276</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>277</v>
-      </c>
-      <c r="C111" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" t="s">
         <v>279</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>280</v>
-      </c>
-      <c r="C112" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>281</v>
+      </c>
+      <c r="B113" t="s">
         <v>282</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>283</v>
-      </c>
-      <c r="C113" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>284</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
         <v>285</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B115" t="s">
         <v>56</v>
       </c>
       <c r="C115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>288</v>
+      </c>
+      <c r="B116" t="s">
         <v>289</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>290</v>
-      </c>
-      <c r="C116" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117" t="s">
         <v>292</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>293</v>
-      </c>
-      <c r="C117" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" t="s">
         <v>295</v>
       </c>
-      <c r="B118" t="s">
-        <v>296</v>
-      </c>
       <c r="C118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
